--- a/510k/表/J技能.xlsx
+++ b/510k/表/J技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28215" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>初始id</t>
   </si>
@@ -39,13 +39,13 @@
     <t>神机妙算</t>
   </si>
   <si>
-    <t>打出版型集结线索，获得竞技分</t>
+    <t>打出版型集结线索，获得欢乐豆</t>
   </si>
   <si>
     <t>财神送豆</t>
   </si>
   <si>
-    <t>打出炸弹时所有玩家有机率获得欢乐豆，自己更多</t>
+    <t>打出炸弹时有机率所有玩家获得欢乐豆，自己更多</t>
   </si>
   <si>
     <t>财源滚滚</t>
@@ -60,50 +60,9 @@
     <t>对手每张剩牌为你加分x%</t>
   </si>
   <si>
-    <t>天赐地主</t>
-  </si>
-  <si>
-    <r>
-      <t>25%机率透视赖子牌，赖子牌是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3~5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时可以更换</t>
-    </r>
-  </si>
-  <si>
-    <t>报警加成</t>
-  </si>
-  <si>
-    <t>优先叫地方的概率提高40%</t>
-  </si>
-  <si>
-    <t>明牌加倍</t>
-  </si>
-  <si>
-    <t>报单、报双得分加成10%</t>
-  </si>
-  <si>
     <t>争分夺秒</t>
   </si>
   <si>
-    <t>明牌初始6倍</t>
-  </si>
-  <si>
     <t>出牌时间低于25秒，获得得加成，时间越短加成越高</t>
   </si>
   <si>
@@ -111,29 +70,6 @@
   </si>
   <si>
     <t>三次压制，可获得额外压制分</t>
-  </si>
-  <si>
-    <r>
-      <t>连胜7局爱心加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，一轮生效一次</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -143,10 +79,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,14 +99,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,61 +152,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,45 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -334,6 +251,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,6 +323,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,43 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,42 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +442,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,36 +471,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,26 +493,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,153 +533,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1205,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="3:6">
+    <row r="7" spans="3:6">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1218,50 +1135,12 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="6:6">
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="9" spans="6:6">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
